--- a/Guru99 Bank_Test_Cases_V1 -Manager.xlsx
+++ b/Guru99 Bank_Test_Cases_V1 -Manager.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QA-\Guru99\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Changelog" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="New Customer" sheetId="2" r:id="rId4"/>
-    <sheet state="visible" name="Edit Customer" sheetId="3" r:id="rId5"/>
-    <sheet state="hidden" name="FundTransfer" sheetId="4" r:id="rId6"/>
-    <sheet state="hidden" name="BalenceEnquiry" sheetId="5" r:id="rId7"/>
-    <sheet state="visible" name="New Account" sheetId="6" r:id="rId8"/>
-    <sheet state="visible" name="Edit Account" sheetId="7" r:id="rId9"/>
-    <sheet state="visible" name="Delete Account" sheetId="8" r:id="rId10"/>
-    <sheet state="visible" name="Delete  Customer" sheetId="9" r:id="rId11"/>
-    <sheet state="visible" name="Mini statement" sheetId="10" r:id="rId12"/>
-    <sheet state="visible" name="Customized statement" sheetId="11" r:id="rId13"/>
-    <sheet state="hidden" name="Inter Bank Fund  Transfer" sheetId="12" r:id="rId14"/>
-    <sheet state="hidden" name="Change  password" sheetId="13" r:id="rId15"/>
+    <sheet name="Changelog" sheetId="1" r:id="rId1"/>
+    <sheet name="New Customer" sheetId="2" r:id="rId2"/>
+    <sheet name="Edit Customer" sheetId="3" r:id="rId3"/>
+    <sheet name="FundTransfer" sheetId="4" state="hidden" r:id="rId4"/>
+    <sheet name="BalenceEnquiry" sheetId="5" state="hidden" r:id="rId5"/>
+    <sheet name="New Account" sheetId="6" r:id="rId6"/>
+    <sheet name="Edit Account" sheetId="7" r:id="rId7"/>
+    <sheet name="Delete Account" sheetId="8" r:id="rId8"/>
+    <sheet name="Delete  Customer" sheetId="9" r:id="rId9"/>
+    <sheet name="Mini statement" sheetId="10" r:id="rId10"/>
+    <sheet name="Customized statement" sheetId="11" r:id="rId11"/>
+    <sheet name="Inter Bank Fund  Transfer" sheetId="12" state="hidden" r:id="rId12"/>
+    <sheet name="Change  password" sheetId="13" state="hidden" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">'New Customer'!$A$1:$H$29</definedName>
-    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">'Edit Customer'!$A$1:$H$24</definedName>
-    <definedName hidden="1" localSheetId="5" name="_xlnm._FilterDatabase">'New Account'!$A$1:$H$11</definedName>
-    <definedName hidden="1" localSheetId="6" name="_xlnm._FilterDatabase">'Edit Account'!$H$1:$H$108</definedName>
-    <definedName hidden="1" localSheetId="8" name="_xlnm._FilterDatabase">'Delete  Customer'!$H$1:$H$100</definedName>
-    <definedName hidden="1" localSheetId="10" name="_xlnm._FilterDatabase">'Customized statement'!$H$1:$H$104</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Customized statement'!$H$1:$H$104</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Delete  Customer'!$H$1:$H$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Edit Account'!$H$1:$H$108</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Edit Customer'!$A$1:$H$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'New Account'!$A$1:$H$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'New Customer'!$A$1:$H$29</definedName>
   </definedNames>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -44,9 +53,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Tom Rick</t>
-  </si>
-  <si>
     <t>24/10/2013</t>
   </si>
   <si>
@@ -1322,35 +1328,43 @@
   <si>
     <t>An error message "Passwords not match " must be shown</t>
   </si>
+  <si>
+    <t>Rono</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="Verdana"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="Verdana"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1358,7 +1372,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1380,16 +1394,30 @@
     </fill>
   </fills>
   <borders count="6">
-    <border/>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1404,224 +1432,454 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="29">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F98"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="15.13"/>
-    <col customWidth="1" min="2" max="2" width="14.38"/>
-    <col customWidth="1" min="3" max="3" width="16.25"/>
-    <col customWidth="1" min="4" max="4" width="15.13"/>
-    <col customWidth="1" min="5" max="5" width="45.88"/>
-    <col customWidth="1" min="6" max="20" width="15.13"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="45.85546875" customWidth="1"/>
+    <col min="6" max="20" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>0</v>
       </c>
@@ -1635,1509 +1893,1514 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="E8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>6</v>
-      </c>
       <c r="F8" s="8"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="6">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>4</v>
+        <v>408</v>
       </c>
       <c r="D9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>8</v>
-      </c>
       <c r="F9" s="8"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="10"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="12"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17">
+    <row r="17" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18">
+    <row r="18" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19">
+    <row r="19" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20">
+    <row r="20" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21">
+    <row r="21" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22">
+    <row r="22" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23">
+    <row r="23" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24">
+    <row r="24" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25">
+    <row r="25" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26">
+    <row r="26" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27">
+    <row r="27" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28">
+    <row r="28" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29">
+    <row r="29" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30">
+    <row r="30" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31">
+    <row r="31" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="2"/>
     </row>
-    <row r="32">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="2"/>
     </row>
-    <row r="33">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="2"/>
     </row>
-    <row r="34">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="2"/>
     </row>
-    <row r="35">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="2"/>
     </row>
-    <row r="36">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="2"/>
     </row>
-    <row r="37">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="2"/>
     </row>
-    <row r="38">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="2"/>
     </row>
-    <row r="39">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="2"/>
     </row>
-    <row r="40">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="2"/>
     </row>
-    <row r="41">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="2"/>
     </row>
-    <row r="42">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="2"/>
     </row>
-    <row r="43">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="2"/>
     </row>
-    <row r="44">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="2"/>
     </row>
-    <row r="45">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="2"/>
     </row>
-    <row r="46">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="2"/>
     </row>
-    <row r="47">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="2"/>
     </row>
-    <row r="48">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="2"/>
     </row>
-    <row r="49">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="2"/>
     </row>
-    <row r="50">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="2"/>
     </row>
-    <row r="51">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="2"/>
     </row>
-    <row r="52">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="2"/>
     </row>
-    <row r="53">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="2"/>
     </row>
-    <row r="54">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="2"/>
     </row>
-    <row r="55">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="2"/>
     </row>
-    <row r="56">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="2"/>
     </row>
-    <row r="57">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="2"/>
     </row>
-    <row r="58">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="2"/>
     </row>
-    <row r="59">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="2"/>
     </row>
-    <row r="60">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="2"/>
     </row>
-    <row r="61">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="2"/>
     </row>
-    <row r="62">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="2"/>
     </row>
-    <row r="63">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="2"/>
     </row>
-    <row r="64">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="2"/>
     </row>
-    <row r="65">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="2"/>
     </row>
-    <row r="66">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="2"/>
     </row>
-    <row r="67">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="2"/>
     </row>
-    <row r="68">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="2"/>
     </row>
-    <row r="69">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="2"/>
     </row>
-    <row r="70">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="2"/>
     </row>
-    <row r="71">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="2"/>
     </row>
-    <row r="72">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="2"/>
     </row>
-    <row r="73">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="2"/>
     </row>
-    <row r="74">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="2"/>
     </row>
-    <row r="75">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="2"/>
     </row>
-    <row r="76">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="2"/>
     </row>
-    <row r="77">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="2"/>
     </row>
-    <row r="78">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="2"/>
     </row>
-    <row r="79">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="2"/>
     </row>
-    <row r="80">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="2"/>
     </row>
-    <row r="81">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="2"/>
     </row>
-    <row r="82">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="2"/>
     </row>
-    <row r="83">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="2"/>
     </row>
-    <row r="84">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="2"/>
     </row>
-    <row r="85">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="2"/>
     </row>
-    <row r="86">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="2"/>
     </row>
-    <row r="87">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="2"/>
     </row>
-    <row r="88">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="2"/>
     </row>
-    <row r="89">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="2"/>
     </row>
-    <row r="90">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="2"/>
     </row>
-    <row r="91">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="2"/>
     </row>
-    <row r="92">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="2"/>
     </row>
-    <row r="93">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="2"/>
     </row>
-    <row r="94">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="2"/>
     </row>
-    <row r="95">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="2"/>
     </row>
-    <row r="96">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="2"/>
     </row>
-    <row r="97">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="2"/>
     </row>
-    <row r="98">
+    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="2"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="20" width="15.13"/>
+    <col min="1" max="20" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="H1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2">
+    </row>
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B2" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="D2" s="16" t="s">
         <v>224</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>225</v>
       </c>
       <c r="E2" s="19"/>
       <c r="F2" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G2" s="17"/>
       <c r="H2" s="19"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="21" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G3" s="17"/>
       <c r="H3" s="19"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>232</v>
-      </c>
       <c r="E4" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4" s="17"/>
       <c r="H4" s="19"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="D5" s="16" t="s">
-        <v>279</v>
-      </c>
       <c r="E5" s="21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G5" s="17"/>
       <c r="H5" s="19"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>246</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>247</v>
       </c>
       <c r="E6" s="19"/>
       <c r="F6" s="16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G6" s="17"/>
       <c r="H6" s="19"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="5.38"/>
-    <col customWidth="1" min="2" max="2" width="15.13"/>
-    <col customWidth="1" min="3" max="3" width="35.5"/>
-    <col customWidth="1" min="4" max="4" width="28.13"/>
-    <col customWidth="1" min="5" max="5" width="15.13"/>
-    <col customWidth="1" min="6" max="6" width="30.38"/>
-    <col customWidth="1" min="7" max="20" width="15.13"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="35.42578125" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="30.42578125" customWidth="1"/>
+    <col min="7" max="20" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="H1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2">
+    </row>
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B2" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="D2" s="16" t="s">
         <v>224</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>225</v>
       </c>
       <c r="E2" s="19"/>
       <c r="F2" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G2" s="17"/>
       <c r="H2" s="19"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="21" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G3" s="19"/>
       <c r="H3" s="19"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>232</v>
-      </c>
       <c r="E4" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="D5" s="16" t="s">
-        <v>279</v>
-      </c>
       <c r="E5" s="21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="18"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>246</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>247</v>
       </c>
       <c r="E6" s="19"/>
       <c r="F6" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="B7" s="21" t="s">
         <v>341</v>
       </c>
-      <c r="B7" s="21" t="s">
-        <v>342</v>
-      </c>
       <c r="C7" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="D7" s="16" t="s">
         <v>213</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>214</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" s="16" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G7" s="17"/>
       <c r="H7" s="18"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D8" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="F8" s="16" t="s">
         <v>345</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>229</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>346</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="18"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="D9" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="D9" s="16" t="s">
-        <v>221</v>
-      </c>
       <c r="E9" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="18"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="D10" s="16" t="s">
         <v>350</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="E10" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="F10" s="16" t="s">
         <v>351</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>243</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>352</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="18"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="21" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>246</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>247</v>
       </c>
       <c r="E11" s="19"/>
       <c r="F11" s="16" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="18"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
+        <v>354</v>
+      </c>
+      <c r="B12" s="21" t="s">
         <v>355</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="C12" s="21" t="s">
         <v>356</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="D12" s="16" t="s">
         <v>357</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>358</v>
       </c>
       <c r="E12" s="19"/>
       <c r="F12" s="16" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="18"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B13" s="19"/>
       <c r="C13" s="21" t="s">
+        <v>360</v>
+      </c>
+      <c r="D13" s="16" t="s">
         <v>361</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="E13" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="F13" s="16" t="s">
         <v>362</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>229</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>363</v>
       </c>
       <c r="G13" s="17"/>
       <c r="H13" s="18"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B14" s="19"/>
       <c r="C14" s="21" t="s">
+        <v>364</v>
+      </c>
+      <c r="D14" s="16" t="s">
         <v>365</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="E14" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="F14" s="16" t="s">
         <v>366</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>367</v>
       </c>
       <c r="G14" s="17"/>
       <c r="H14" s="18"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="21" t="s">
+        <v>368</v>
+      </c>
+      <c r="D15" s="16" t="s">
         <v>369</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="E15" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="F15" s="16" t="s">
         <v>370</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>243</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>371</v>
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="18"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="21" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B16" s="19"/>
       <c r="C16" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="D16" s="16" t="s">
         <v>246</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>247</v>
       </c>
       <c r="E16" s="19"/>
       <c r="F16" s="16" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G16" s="17"/>
       <c r="H16" s="18"/>
     </row>
-    <row r="17">
+    <row r="17" spans="7:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
     </row>
-    <row r="18">
+    <row r="18" spans="7:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
     </row>
-    <row r="19">
+    <row r="19" spans="7:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G19" s="19"/>
       <c r="H19" s="19"/>
     </row>
   </sheetData>
-  <autoFilter ref="$H$1:$H$104"/>
-  <drawing r:id="rId1"/>
+  <autoFilter ref="H1:H104"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="3" width="15.13"/>
-    <col customWidth="1" min="4" max="4" width="20.88"/>
-    <col customWidth="1" min="5" max="20" width="15.13"/>
+    <col min="1" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" customWidth="1"/>
+    <col min="5" max="20" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B1" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="E1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="F1" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="G1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="H1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2">
+    </row>
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="24">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="24" t="s">
+        <v>373</v>
+      </c>
+      <c r="C2" s="24" t="s">
         <v>374</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="D2" s="25" t="s">
         <v>375</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>376</v>
       </c>
       <c r="E2" s="28"/>
       <c r="F2" s="25" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="24" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="C3" s="24" t="s">
+      <c r="D3" s="25" t="s">
         <v>378</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="E3" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="F3" s="25" t="s">
         <v>379</v>
       </c>
-      <c r="E3" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="F3" s="25" t="s">
+    </row>
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="24" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="4">
-      <c r="C4" s="24" t="s">
+    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="24">
+        <v>2</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="24">
+        <v>3</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="24">
+        <v>4</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="24">
+        <v>5</v>
+      </c>
+      <c r="B14" s="24" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="24">
-        <v>2.0</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>193</v>
-      </c>
-      <c r="F5" s="25" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="C6" s="24" t="s">
-        <v>195</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="C7" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>200</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="24">
-        <v>3.0</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>202</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="C9" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>207</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="C10" s="24" t="s">
-        <v>209</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>210</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="24">
-        <v>4.0</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>212</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>213</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>214</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="C12" s="24" t="s">
-        <v>216</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>217</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="F12" s="25" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="C13" s="24" t="s">
-        <v>220</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>221</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="24">
-        <v>5.0</v>
-      </c>
-      <c r="B14" s="24" t="s">
+      <c r="C14" s="24" t="s">
         <v>382</v>
       </c>
-      <c r="C14" s="24" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="15">
+    </row>
+    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="24" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="24" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="5" width="15.13"/>
-    <col customWidth="1" min="6" max="6" width="21.63"/>
-    <col customWidth="1" min="7" max="20" width="15.13"/>
+    <col min="1" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" customWidth="1"/>
+    <col min="7" max="20" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B1" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="E1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="F1" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="G1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="H1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2">
+    </row>
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="24">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="24" t="s">
+        <v>383</v>
+      </c>
+      <c r="C2" s="24" t="s">
         <v>384</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="D2" s="25" t="s">
         <v>385</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="F2" s="25" t="s">
         <v>386</v>
       </c>
-      <c r="F2" s="25" t="s">
+    </row>
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="24">
+        <v>2</v>
+      </c>
+      <c r="B3" s="24" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="24">
-        <v>2.0</v>
-      </c>
-      <c r="B3" s="24" t="s">
+      <c r="C3" s="24" t="s">
         <v>388</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="D3" s="25" t="s">
         <v>389</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="F3" s="25" t="s">
         <v>390</v>
       </c>
-      <c r="F3" s="25" t="s">
+    </row>
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="24" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="C4" s="24" t="s">
+      <c r="D4" s="24" t="s">
         <v>392</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="E4" s="24" t="s">
         <v>393</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="F4" s="25" t="s">
         <v>394</v>
       </c>
-      <c r="F4" s="25" t="s">
+    </row>
+    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="24" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="C5" s="24" t="s">
+      <c r="D5" s="24" t="s">
         <v>396</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="E5" s="24" t="s">
         <v>397</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="F5" s="25" t="s">
         <v>398</v>
       </c>
-      <c r="F5" s="25" t="s">
+    </row>
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="24" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="C6" s="24" t="s">
+      <c r="D6" s="24" t="s">
         <v>400</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="E6" s="24" t="s">
         <v>401</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="F6" s="25" t="s">
         <v>402</v>
       </c>
-      <c r="F6" s="25" t="s">
+    </row>
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="24">
+        <v>3</v>
+      </c>
+      <c r="B7" s="24" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="24">
-        <v>3.0</v>
-      </c>
-      <c r="B7" s="24" t="s">
+      <c r="C7" s="24" t="s">
         <v>404</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="D7" s="24" t="s">
         <v>405</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="E7" s="24" t="s">
         <v>406</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="F7" s="25" t="s">
         <v>407</v>
       </c>
-      <c r="F7" s="25" t="s">
-        <v>408</v>
-      </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:V101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="11.13"/>
-    <col customWidth="1" min="2" max="2" width="19.0"/>
-    <col customWidth="1" min="3" max="3" width="33.25"/>
-    <col customWidth="1" min="4" max="4" width="39.13"/>
-    <col customWidth="1" min="5" max="5" width="15.13"/>
-    <col customWidth="1" min="6" max="6" width="36.0"/>
-    <col customWidth="1" min="7" max="22" width="15.13"/>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" customWidth="1"/>
+    <col min="4" max="4" width="39.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="36" customWidth="1"/>
+    <col min="7" max="22" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>15</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>16</v>
       </c>
       <c r="I1" s="14"/>
       <c r="J1" s="14"/>
@@ -3154,80 +3417,80 @@
       <c r="U1" s="14"/>
       <c r="V1" s="14"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="C2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="D2" s="16" t="s">
         <v>19</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>20</v>
       </c>
       <c r="E2" s="17"/>
       <c r="F2" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="E3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="F3" s="16" t="s">
         <v>25</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>26</v>
       </c>
       <c r="G3" s="17"/>
       <c r="H3" s="17"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="E4" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="F4" s="16" t="s">
         <v>30</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>31</v>
       </c>
       <c r="G4" s="17"/>
       <c r="H4" s="17"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>33</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>34</v>
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G5" s="17"/>
       <c r="H5" s="18"/>
@@ -3246,22 +3509,22 @@
       <c r="U5" s="19"/>
       <c r="V5" s="19"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="C6" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="D6" s="16" t="s">
         <v>38</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>39</v>
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G6" s="17"/>
       <c r="H6" s="18"/>
@@ -3280,20 +3543,20 @@
       <c r="U6" s="19"/>
       <c r="V6" s="19"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" s="17"/>
       <c r="C7" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G7" s="17"/>
       <c r="H7" s="18"/>
@@ -3312,80 +3575,80 @@
       <c r="U7" s="19"/>
       <c r="V7" s="19"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="C8" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="D8" s="16" t="s">
         <v>45</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>46</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="E9" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="16" t="s">
-        <v>51</v>
-      </c>
       <c r="F9" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" s="17"/>
       <c r="C10" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="E10" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="16" t="s">
-        <v>55</v>
-      </c>
       <c r="F10" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="17"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B11" s="17"/>
       <c r="C11" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E11" s="17"/>
       <c r="F11" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="18"/>
@@ -3404,80 +3667,80 @@
       <c r="U11" s="19"/>
       <c r="V11" s="19"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="C12" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="D12" s="16" t="s">
         <v>60</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>61</v>
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B13" s="17"/>
       <c r="C13" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="E13" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="16" t="s">
-        <v>66</v>
-      </c>
       <c r="F13" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B14" s="17"/>
       <c r="C14" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="E14" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="16" t="s">
-        <v>70</v>
-      </c>
       <c r="F14" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
     </row>
-    <row r="15" ht="27.0" customHeight="1">
+    <row r="15" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B15" s="17"/>
       <c r="C15" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E15" s="17"/>
       <c r="F15" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="18"/>
@@ -3496,100 +3759,100 @@
       <c r="U15" s="19"/>
       <c r="V15" s="19"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="C16" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="D16" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="E16" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="F16" s="16" t="s">
         <v>77</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>78</v>
       </c>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="16" t="s">
         <v>80</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>81</v>
       </c>
       <c r="E17" s="17"/>
       <c r="F17" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B18" s="17"/>
       <c r="C18" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="E18" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="F18" s="16" t="s">
         <v>86</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>87</v>
       </c>
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B19" s="17"/>
       <c r="C19" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="E19" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="E19" s="16" t="s">
-        <v>91</v>
-      </c>
       <c r="F19" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B20" s="17"/>
       <c r="C20" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E20" s="17"/>
       <c r="F20" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G20" s="17"/>
       <c r="H20" s="18"/>
@@ -3608,20 +3871,20 @@
       <c r="U20" s="19"/>
       <c r="V20" s="19"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B21" s="17"/>
       <c r="C21" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E21" s="17"/>
       <c r="F21" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="18"/>
@@ -3640,40 +3903,40 @@
       <c r="U21" s="19"/>
       <c r="V21" s="19"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="C22" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="D22" s="16" t="s">
         <v>99</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>100</v>
       </c>
       <c r="E22" s="17"/>
       <c r="F22" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G22" s="17"/>
       <c r="H22" s="17"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B23" s="17"/>
       <c r="C23" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E23" s="17"/>
       <c r="F23" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G23" s="17"/>
       <c r="H23" s="18"/>
@@ -3692,22 +3955,22 @@
       <c r="U23" s="19"/>
       <c r="V23" s="19"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B24" s="17"/>
       <c r="C24" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="E24" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="F24" s="16" t="s">
         <v>107</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>108</v>
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="18"/>
@@ -3726,80 +3989,80 @@
       <c r="U24" s="19"/>
       <c r="V24" s="19"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B25" s="17"/>
       <c r="C25" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D25" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="E25" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="E25" s="16" t="s">
-        <v>112</v>
-      </c>
       <c r="F25" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B26" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="C26" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="D26" s="16" t="s">
         <v>115</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>116</v>
       </c>
       <c r="E26" s="17"/>
       <c r="F26" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G26" s="17"/>
       <c r="H26" s="17"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:22" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A27" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B27" s="17"/>
       <c r="C27" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D27" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="E27" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="F27" s="16" t="s">
         <v>121</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>122</v>
       </c>
       <c r="G27" s="17"/>
       <c r="H27" s="17"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B28" s="19"/>
       <c r="C28" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D28" s="16" t="s">
         <v>124</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>125</v>
       </c>
       <c r="E28" s="17"/>
       <c r="F28" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G28" s="17"/>
       <c r="H28" s="18"/>
@@ -3818,294 +4081,295 @@
       <c r="U28" s="19"/>
       <c r="V28" s="19"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="B29" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="C29" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="D29" s="21" t="s">
         <v>129</v>
-      </c>
-      <c r="D29" s="21" t="s">
-        <v>130</v>
       </c>
       <c r="E29" s="19"/>
       <c r="F29" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G29" s="19"/>
       <c r="H29" s="18"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="22"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="22"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="22"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="22"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="22"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="22"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="22"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="22"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="22"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="22"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="22"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="22"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="22"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="22"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="22"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="22"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="22"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="22"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="22"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="22"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="22"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="22"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="22"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="22"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="22"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="22"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="22"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="22"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="22"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="22"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="22"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="22"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" s="22"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" s="22"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="22"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="22"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="22"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="22"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="22"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="22"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" s="22"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="22"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="22"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="22"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="22"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="22"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" s="22"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" s="22"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" s="22"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" s="22"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" s="22"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="22"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="22"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="22"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="22"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="22"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="22"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="22"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" s="22"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" s="22"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" s="22"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" s="22"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" s="22"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" s="22"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" s="22"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" s="22"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" s="22"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" s="22"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" s="22"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" s="22"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" s="22"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" s="22"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$H$29"/>
-  <drawing r:id="rId1"/>
+  <autoFilter ref="A1:H29"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:T101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="7.38"/>
-    <col customWidth="1" min="2" max="2" width="16.75"/>
-    <col customWidth="1" min="3" max="3" width="23.38"/>
-    <col customWidth="1" min="4" max="4" width="34.38"/>
-    <col customWidth="1" min="5" max="5" width="15.13"/>
-    <col customWidth="1" min="6" max="7" width="24.63"/>
-    <col customWidth="1" min="8" max="20" width="15.13"/>
+    <col min="1" max="1" width="7.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="34.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="7" width="24.5703125" customWidth="1"/>
+    <col min="8" max="20" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="H1" s="16" t="s">
         <v>15</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>16</v>
       </c>
       <c r="I1" s="19"/>
       <c r="J1" s="19"/>
@@ -4120,22 +4384,22 @@
       <c r="S1" s="19"/>
       <c r="T1" s="19"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="C2" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="D2" s="16" t="s">
         <v>135</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>136</v>
       </c>
       <c r="E2" s="19"/>
       <c r="F2" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G2" s="17"/>
       <c r="H2" s="22"/>
@@ -4152,22 +4416,22 @@
       <c r="S2" s="19"/>
       <c r="T2" s="19"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="E3" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="E3" s="16" t="s">
-        <v>141</v>
-      </c>
       <c r="F3" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G3" s="17"/>
       <c r="H3" s="22"/>
@@ -4184,22 +4448,22 @@
       <c r="S3" s="19"/>
       <c r="T3" s="19"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="E4" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="E4" s="16" t="s">
-        <v>145</v>
-      </c>
       <c r="F4" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4" s="17"/>
       <c r="H4" s="22"/>
@@ -4216,22 +4480,22 @@
       <c r="S4" s="19"/>
       <c r="T4" s="19"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="E5" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="F5" s="16" t="s">
         <v>149</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>150</v>
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="18"/>
@@ -4248,22 +4512,22 @@
       <c r="S5" s="19"/>
       <c r="T5" s="19"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B6" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="D6" s="16" t="s">
         <v>19</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>20</v>
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G6" s="19"/>
       <c r="H6" s="18"/>
@@ -4280,22 +4544,22 @@
       <c r="S6" s="19"/>
       <c r="T6" s="19"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B7" s="17"/>
       <c r="C7" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="E7" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>25</v>
-      </c>
       <c r="F7" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G7" s="19"/>
       <c r="H7" s="18"/>
@@ -4312,22 +4576,22 @@
       <c r="S7" s="19"/>
       <c r="T7" s="19"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B8" s="17"/>
       <c r="C8" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="16" t="s">
         <v>156</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>157</v>
       </c>
       <c r="G8" s="19"/>
       <c r="H8" s="18"/>
@@ -4344,22 +4608,22 @@
       <c r="S8" s="19"/>
       <c r="T8" s="19"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B9" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="D9" s="16" t="s">
         <v>38</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>39</v>
       </c>
       <c r="E9" s="17"/>
       <c r="F9" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G9" s="19"/>
       <c r="H9" s="18"/>
@@ -4376,22 +4640,22 @@
       <c r="S9" s="19"/>
       <c r="T9" s="19"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B10" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="D10" s="16" t="s">
         <v>45</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>46</v>
       </c>
       <c r="E10" s="17"/>
       <c r="F10" s="16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G10" s="19"/>
       <c r="H10" s="18"/>
@@ -4408,22 +4672,22 @@
       <c r="S10" s="19"/>
       <c r="T10" s="19"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B11" s="17"/>
       <c r="C11" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="E11" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="16" t="s">
-        <v>51</v>
-      </c>
       <c r="F11" s="16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G11" s="19"/>
       <c r="H11" s="18"/>
@@ -4440,22 +4704,22 @@
       <c r="S11" s="19"/>
       <c r="T11" s="19"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="E12" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="16" t="s">
-        <v>55</v>
-      </c>
       <c r="F12" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G12" s="19"/>
       <c r="H12" s="18"/>
@@ -4472,22 +4736,22 @@
       <c r="S12" s="19"/>
       <c r="T12" s="19"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="B13" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>166</v>
-      </c>
       <c r="D13" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G13" s="19"/>
       <c r="H13" s="18"/>
@@ -4504,22 +4768,22 @@
       <c r="S13" s="19"/>
       <c r="T13" s="19"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B14" s="17"/>
       <c r="C14" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="E14" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="16" t="s">
-        <v>66</v>
-      </c>
       <c r="F14" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G14" s="19"/>
       <c r="H14" s="18"/>
@@ -4536,22 +4800,22 @@
       <c r="S14" s="19"/>
       <c r="T14" s="19"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B15" s="17"/>
       <c r="C15" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="E15" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="16" t="s">
-        <v>70</v>
-      </c>
       <c r="F15" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G15" s="19"/>
       <c r="H15" s="18"/>
@@ -4568,24 +4832,24 @@
       <c r="S15" s="19"/>
       <c r="T15" s="19"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="16" t="s">
         <v>170</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>171</v>
       </c>
       <c r="G16" s="19"/>
       <c r="H16" s="18"/>
@@ -4602,20 +4866,20 @@
       <c r="S16" s="19"/>
       <c r="T16" s="19"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="16" t="s">
         <v>80</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>81</v>
       </c>
       <c r="E17" s="17"/>
       <c r="F17" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G17" s="19"/>
       <c r="H17" s="18"/>
@@ -4632,22 +4896,22 @@
       <c r="S17" s="19"/>
       <c r="T17" s="19"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B18" s="17"/>
       <c r="C18" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="D18" s="16" t="s">
-        <v>85</v>
-      </c>
       <c r="E18" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="F18" s="16" t="s">
         <v>175</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>176</v>
       </c>
       <c r="G18" s="19"/>
       <c r="H18" s="18"/>
@@ -4664,22 +4928,22 @@
       <c r="S18" s="19"/>
       <c r="T18" s="19"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B19" s="17"/>
       <c r="C19" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="E19" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="E19" s="16" t="s">
-        <v>91</v>
-      </c>
       <c r="F19" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G19" s="19"/>
       <c r="H19" s="18"/>
@@ -4696,22 +4960,22 @@
       <c r="S19" s="19"/>
       <c r="T19" s="19"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B20" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="D20" s="16" t="s">
         <v>99</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>100</v>
       </c>
       <c r="E20" s="17"/>
       <c r="F20" s="16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G20" s="19"/>
       <c r="H20" s="18"/>
@@ -4728,22 +4992,22 @@
       <c r="S20" s="19"/>
       <c r="T20" s="19"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B21" s="17"/>
       <c r="C21" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G21" s="19"/>
       <c r="H21" s="18"/>
@@ -4760,22 +5024,22 @@
       <c r="S21" s="19"/>
       <c r="T21" s="19"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B22" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="D22" s="16" t="s">
         <v>115</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>116</v>
       </c>
       <c r="E22" s="17"/>
       <c r="F22" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G22" s="19"/>
       <c r="H22" s="18"/>
@@ -4792,22 +5056,22 @@
       <c r="S22" s="19"/>
       <c r="T22" s="19"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B23" s="17"/>
       <c r="C23" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="D23" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="E23" s="16" t="s">
+      <c r="F23" s="16" t="s">
         <v>187</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>188</v>
       </c>
       <c r="G23" s="19"/>
       <c r="H23" s="18"/>
@@ -4824,22 +5088,22 @@
       <c r="S23" s="19"/>
       <c r="T23" s="19"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B24" s="19"/>
       <c r="C24" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D24" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="E24" s="16" t="s">
-        <v>121</v>
-      </c>
       <c r="F24" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G24" s="19"/>
       <c r="H24" s="18"/>
@@ -4856,7 +5120,7 @@
       <c r="S24" s="19"/>
       <c r="T24" s="19"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="19"/>
       <c r="B25" s="19"/>
       <c r="C25" s="19"/>
@@ -4878,7 +5142,7 @@
       <c r="S25" s="19"/>
       <c r="T25" s="19"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="19"/>
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
@@ -4900,7 +5164,7 @@
       <c r="S26" s="19"/>
       <c r="T26" s="19"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="19"/>
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
@@ -4922,7 +5186,7 @@
       <c r="S27" s="19"/>
       <c r="T27" s="19"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="19"/>
       <c r="B28" s="19"/>
       <c r="C28" s="19"/>
@@ -4944,7 +5208,7 @@
       <c r="S28" s="19"/>
       <c r="T28" s="19"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="19"/>
       <c r="B29" s="19"/>
       <c r="C29" s="19"/>
@@ -4966,7 +5230,7 @@
       <c r="S29" s="19"/>
       <c r="T29" s="19"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="19"/>
       <c r="B30" s="19"/>
       <c r="C30" s="19"/>
@@ -4988,7 +5252,7 @@
       <c r="S30" s="19"/>
       <c r="T30" s="19"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="19"/>
       <c r="B31" s="19"/>
       <c r="C31" s="19"/>
@@ -5010,7 +5274,7 @@
       <c r="S31" s="19"/>
       <c r="T31" s="19"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="19"/>
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
@@ -5032,7 +5296,7 @@
       <c r="S32" s="19"/>
       <c r="T32" s="19"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" s="19"/>
       <c r="B33" s="19"/>
       <c r="C33" s="19"/>
@@ -5054,7 +5318,7 @@
       <c r="S33" s="19"/>
       <c r="T33" s="19"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" s="19"/>
       <c r="B34" s="19"/>
       <c r="C34" s="19"/>
@@ -5076,7 +5340,7 @@
       <c r="S34" s="19"/>
       <c r="T34" s="19"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" s="19"/>
       <c r="B35" s="19"/>
       <c r="C35" s="19"/>
@@ -5098,7 +5362,7 @@
       <c r="S35" s="19"/>
       <c r="T35" s="19"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" s="19"/>
       <c r="B36" s="19"/>
       <c r="C36" s="19"/>
@@ -5120,7 +5384,7 @@
       <c r="S36" s="19"/>
       <c r="T36" s="19"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" s="19"/>
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>
@@ -5142,7 +5406,7 @@
       <c r="S37" s="19"/>
       <c r="T37" s="19"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" s="19"/>
       <c r="B38" s="19"/>
       <c r="C38" s="19"/>
@@ -5164,7 +5428,7 @@
       <c r="S38" s="19"/>
       <c r="T38" s="19"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" s="19"/>
       <c r="B39" s="19"/>
       <c r="C39" s="19"/>
@@ -5186,7 +5450,7 @@
       <c r="S39" s="19"/>
       <c r="T39" s="19"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" s="19"/>
       <c r="B40" s="19"/>
       <c r="C40" s="19"/>
@@ -5208,7 +5472,7 @@
       <c r="S40" s="19"/>
       <c r="T40" s="19"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" s="19"/>
       <c r="B41" s="19"/>
       <c r="C41" s="19"/>
@@ -5230,7 +5494,7 @@
       <c r="S41" s="19"/>
       <c r="T41" s="19"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" s="19"/>
       <c r="B42" s="19"/>
       <c r="C42" s="19"/>
@@ -5252,7 +5516,7 @@
       <c r="S42" s="19"/>
       <c r="T42" s="19"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" s="19"/>
       <c r="B43" s="19"/>
       <c r="C43" s="19"/>
@@ -5274,7 +5538,7 @@
       <c r="S43" s="19"/>
       <c r="T43" s="19"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" s="19"/>
       <c r="B44" s="19"/>
       <c r="C44" s="19"/>
@@ -5296,7 +5560,7 @@
       <c r="S44" s="19"/>
       <c r="T44" s="19"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" s="19"/>
       <c r="B45" s="19"/>
       <c r="C45" s="19"/>
@@ -5318,7 +5582,7 @@
       <c r="S45" s="19"/>
       <c r="T45" s="19"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" s="19"/>
       <c r="B46" s="19"/>
       <c r="C46" s="19"/>
@@ -5340,7 +5604,7 @@
       <c r="S46" s="19"/>
       <c r="T46" s="19"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" s="19"/>
       <c r="B47" s="19"/>
       <c r="C47" s="19"/>
@@ -5362,7 +5626,7 @@
       <c r="S47" s="19"/>
       <c r="T47" s="19"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" s="19"/>
       <c r="B48" s="19"/>
       <c r="C48" s="19"/>
@@ -5384,7 +5648,7 @@
       <c r="S48" s="19"/>
       <c r="T48" s="19"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" s="19"/>
       <c r="B49" s="19"/>
       <c r="C49" s="19"/>
@@ -5406,7 +5670,7 @@
       <c r="S49" s="19"/>
       <c r="T49" s="19"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" s="19"/>
       <c r="B50" s="19"/>
       <c r="C50" s="19"/>
@@ -5428,7 +5692,7 @@
       <c r="S50" s="19"/>
       <c r="T50" s="19"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" s="19"/>
       <c r="B51" s="19"/>
       <c r="C51" s="19"/>
@@ -5450,7 +5714,7 @@
       <c r="S51" s="19"/>
       <c r="T51" s="19"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" s="19"/>
       <c r="B52" s="19"/>
       <c r="C52" s="19"/>
@@ -5472,7 +5736,7 @@
       <c r="S52" s="19"/>
       <c r="T52" s="19"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" s="19"/>
       <c r="B53" s="19"/>
       <c r="C53" s="19"/>
@@ -5494,7 +5758,7 @@
       <c r="S53" s="19"/>
       <c r="T53" s="19"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" s="19"/>
       <c r="B54" s="19"/>
       <c r="C54" s="19"/>
@@ -5516,7 +5780,7 @@
       <c r="S54" s="19"/>
       <c r="T54" s="19"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" s="19"/>
       <c r="B55" s="19"/>
       <c r="C55" s="19"/>
@@ -5538,7 +5802,7 @@
       <c r="S55" s="19"/>
       <c r="T55" s="19"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56" s="19"/>
       <c r="B56" s="19"/>
       <c r="C56" s="19"/>
@@ -5560,7 +5824,7 @@
       <c r="S56" s="19"/>
       <c r="T56" s="19"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" s="19"/>
       <c r="B57" s="19"/>
       <c r="C57" s="19"/>
@@ -5582,7 +5846,7 @@
       <c r="S57" s="19"/>
       <c r="T57" s="19"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" s="19"/>
       <c r="B58" s="19"/>
       <c r="C58" s="19"/>
@@ -5604,7 +5868,7 @@
       <c r="S58" s="19"/>
       <c r="T58" s="19"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" s="19"/>
       <c r="B59" s="19"/>
       <c r="C59" s="19"/>
@@ -5626,7 +5890,7 @@
       <c r="S59" s="19"/>
       <c r="T59" s="19"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" s="19"/>
       <c r="B60" s="19"/>
       <c r="C60" s="19"/>
@@ -5648,7 +5912,7 @@
       <c r="S60" s="19"/>
       <c r="T60" s="19"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61" s="19"/>
       <c r="B61" s="19"/>
       <c r="C61" s="19"/>
@@ -5670,7 +5934,7 @@
       <c r="S61" s="19"/>
       <c r="T61" s="19"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62" s="19"/>
       <c r="B62" s="19"/>
       <c r="C62" s="19"/>
@@ -5692,7 +5956,7 @@
       <c r="S62" s="19"/>
       <c r="T62" s="19"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63" s="19"/>
       <c r="B63" s="19"/>
       <c r="C63" s="19"/>
@@ -5714,7 +5978,7 @@
       <c r="S63" s="19"/>
       <c r="T63" s="19"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64" s="19"/>
       <c r="B64" s="19"/>
       <c r="C64" s="19"/>
@@ -5736,7 +6000,7 @@
       <c r="S64" s="19"/>
       <c r="T64" s="19"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65" s="19"/>
       <c r="B65" s="19"/>
       <c r="C65" s="19"/>
@@ -5758,7 +6022,7 @@
       <c r="S65" s="19"/>
       <c r="T65" s="19"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" s="19"/>
       <c r="B66" s="19"/>
       <c r="C66" s="19"/>
@@ -5780,7 +6044,7 @@
       <c r="S66" s="19"/>
       <c r="T66" s="19"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" s="19"/>
       <c r="B67" s="19"/>
       <c r="C67" s="19"/>
@@ -5802,7 +6066,7 @@
       <c r="S67" s="19"/>
       <c r="T67" s="19"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68" s="19"/>
       <c r="B68" s="19"/>
       <c r="C68" s="19"/>
@@ -5824,7 +6088,7 @@
       <c r="S68" s="19"/>
       <c r="T68" s="19"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69" s="19"/>
       <c r="B69" s="19"/>
       <c r="C69" s="19"/>
@@ -5846,7 +6110,7 @@
       <c r="S69" s="19"/>
       <c r="T69" s="19"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70" s="19"/>
       <c r="B70" s="19"/>
       <c r="C70" s="19"/>
@@ -5868,7 +6132,7 @@
       <c r="S70" s="19"/>
       <c r="T70" s="19"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71" s="19"/>
       <c r="B71" s="19"/>
       <c r="C71" s="19"/>
@@ -5890,7 +6154,7 @@
       <c r="S71" s="19"/>
       <c r="T71" s="19"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A72" s="19"/>
       <c r="B72" s="19"/>
       <c r="C72" s="19"/>
@@ -5912,7 +6176,7 @@
       <c r="S72" s="19"/>
       <c r="T72" s="19"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A73" s="19"/>
       <c r="B73" s="19"/>
       <c r="C73" s="19"/>
@@ -5934,7 +6198,7 @@
       <c r="S73" s="19"/>
       <c r="T73" s="19"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A74" s="19"/>
       <c r="B74" s="19"/>
       <c r="C74" s="19"/>
@@ -5956,7 +6220,7 @@
       <c r="S74" s="19"/>
       <c r="T74" s="19"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A75" s="19"/>
       <c r="B75" s="19"/>
       <c r="C75" s="19"/>
@@ -5978,7 +6242,7 @@
       <c r="S75" s="19"/>
       <c r="T75" s="19"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A76" s="19"/>
       <c r="B76" s="19"/>
       <c r="C76" s="19"/>
@@ -6000,7 +6264,7 @@
       <c r="S76" s="19"/>
       <c r="T76" s="19"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A77" s="19"/>
       <c r="B77" s="19"/>
       <c r="C77" s="19"/>
@@ -6022,7 +6286,7 @@
       <c r="S77" s="19"/>
       <c r="T77" s="19"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A78" s="19"/>
       <c r="B78" s="19"/>
       <c r="C78" s="19"/>
@@ -6044,7 +6308,7 @@
       <c r="S78" s="19"/>
       <c r="T78" s="19"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A79" s="19"/>
       <c r="B79" s="19"/>
       <c r="C79" s="19"/>
@@ -6066,7 +6330,7 @@
       <c r="S79" s="19"/>
       <c r="T79" s="19"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A80" s="19"/>
       <c r="B80" s="19"/>
       <c r="C80" s="19"/>
@@ -6088,7 +6352,7 @@
       <c r="S80" s="19"/>
       <c r="T80" s="19"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A81" s="19"/>
       <c r="B81" s="19"/>
       <c r="C81" s="19"/>
@@ -6110,7 +6374,7 @@
       <c r="S81" s="19"/>
       <c r="T81" s="19"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A82" s="19"/>
       <c r="B82" s="19"/>
       <c r="C82" s="19"/>
@@ -6132,7 +6396,7 @@
       <c r="S82" s="19"/>
       <c r="T82" s="19"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A83" s="19"/>
       <c r="B83" s="19"/>
       <c r="C83" s="19"/>
@@ -6154,7 +6418,7 @@
       <c r="S83" s="19"/>
       <c r="T83" s="19"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A84" s="19"/>
       <c r="B84" s="19"/>
       <c r="C84" s="19"/>
@@ -6176,7 +6440,7 @@
       <c r="S84" s="19"/>
       <c r="T84" s="19"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A85" s="19"/>
       <c r="B85" s="19"/>
       <c r="C85" s="19"/>
@@ -6198,7 +6462,7 @@
       <c r="S85" s="19"/>
       <c r="T85" s="19"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A86" s="19"/>
       <c r="B86" s="19"/>
       <c r="C86" s="19"/>
@@ -6220,7 +6484,7 @@
       <c r="S86" s="19"/>
       <c r="T86" s="19"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A87" s="19"/>
       <c r="B87" s="19"/>
       <c r="C87" s="19"/>
@@ -6242,7 +6506,7 @@
       <c r="S87" s="19"/>
       <c r="T87" s="19"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A88" s="19"/>
       <c r="B88" s="19"/>
       <c r="C88" s="19"/>
@@ -6264,7 +6528,7 @@
       <c r="S88" s="19"/>
       <c r="T88" s="19"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A89" s="19"/>
       <c r="B89" s="19"/>
       <c r="C89" s="19"/>
@@ -6286,7 +6550,7 @@
       <c r="S89" s="19"/>
       <c r="T89" s="19"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A90" s="19"/>
       <c r="B90" s="19"/>
       <c r="C90" s="19"/>
@@ -6308,7 +6572,7 @@
       <c r="S90" s="19"/>
       <c r="T90" s="19"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A91" s="19"/>
       <c r="B91" s="19"/>
       <c r="C91" s="19"/>
@@ -6330,7 +6594,7 @@
       <c r="S91" s="19"/>
       <c r="T91" s="19"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A92" s="19"/>
       <c r="B92" s="19"/>
       <c r="C92" s="19"/>
@@ -6352,7 +6616,7 @@
       <c r="S92" s="19"/>
       <c r="T92" s="19"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A93" s="19"/>
       <c r="B93" s="19"/>
       <c r="C93" s="19"/>
@@ -6374,7 +6638,7 @@
       <c r="S93" s="19"/>
       <c r="T93" s="19"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A94" s="19"/>
       <c r="B94" s="19"/>
       <c r="C94" s="19"/>
@@ -6396,7 +6660,7 @@
       <c r="S94" s="19"/>
       <c r="T94" s="19"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A95" s="19"/>
       <c r="B95" s="19"/>
       <c r="C95" s="19"/>
@@ -6418,7 +6682,7 @@
       <c r="S95" s="19"/>
       <c r="T95" s="19"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A96" s="19"/>
       <c r="B96" s="19"/>
       <c r="C96" s="19"/>
@@ -6440,7 +6704,7 @@
       <c r="S96" s="19"/>
       <c r="T96" s="19"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A97" s="19"/>
       <c r="B97" s="19"/>
       <c r="C97" s="19"/>
@@ -6462,7 +6726,7 @@
       <c r="S97" s="19"/>
       <c r="T97" s="19"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A98" s="19"/>
       <c r="B98" s="19"/>
       <c r="C98" s="19"/>
@@ -6484,7 +6748,7 @@
       <c r="S98" s="19"/>
       <c r="T98" s="19"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A99" s="19"/>
       <c r="B99" s="19"/>
       <c r="C99" s="19"/>
@@ -6506,7 +6770,7 @@
       <c r="S99" s="19"/>
       <c r="T99" s="19"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A100" s="19"/>
       <c r="B100" s="19"/>
       <c r="C100" s="19"/>
@@ -6528,7 +6792,7 @@
       <c r="S100" s="19"/>
       <c r="T100" s="19"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A101" s="19"/>
       <c r="B101" s="19"/>
       <c r="C101" s="19"/>
@@ -6551,329 +6815,332 @@
       <c r="T101" s="19"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$H$24"/>
-  <drawing r:id="rId1"/>
+  <autoFilter ref="A1:H24"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="3" width="15.13"/>
-    <col customWidth="1" min="4" max="4" width="21.75"/>
-    <col customWidth="1" min="5" max="5" width="15.13"/>
-    <col customWidth="1" min="6" max="6" width="24.25"/>
-    <col customWidth="1" min="7" max="19" width="15.13"/>
+    <col min="1" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" customWidth="1"/>
+    <col min="7" max="19" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B1" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="E1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="F1" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="G1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="H1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2">
+    </row>
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="24">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="D2" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="F2" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="F2" s="25" t="s">
+    </row>
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="24" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="C3" s="24" t="s">
+      <c r="D3" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="E3" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="F3" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="F3" s="25" t="s">
+    </row>
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="24" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="C4" s="24" t="s">
+      <c r="D4" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="E4" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="E4" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="F4" s="25" t="s">
+    </row>
+    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="24">
+        <v>2</v>
+      </c>
+      <c r="B5" s="24" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="24">
-        <v>2.0</v>
-      </c>
-      <c r="B5" s="24" t="s">
+      <c r="C5" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="D5" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="F5" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="F5" s="25" t="s">
+    </row>
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="24" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="C6" s="24" t="s">
+      <c r="D6" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="E6" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="F6" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="E6" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="F6" s="25" t="s">
+    </row>
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="24" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="C7" s="24" t="s">
+      <c r="D7" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="E7" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="F7" s="25" t="s">
         <v>210</v>
       </c>
-      <c r="E7" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="F7" s="25" t="s">
+    </row>
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="24">
+        <v>3</v>
+      </c>
+      <c r="B8" s="24" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="24">
-        <v>3.0</v>
-      </c>
-      <c r="B8" s="24" t="s">
+      <c r="C8" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="D8" s="25" t="s">
         <v>213</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="F8" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="F8" s="25" t="s">
+    </row>
+    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="24" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="C9" s="24" t="s">
+      <c r="D9" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="E9" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="F9" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="F9" s="25" t="s">
+    </row>
+    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="24" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="C10" s="24" t="s">
+      <c r="D10" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="E10" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="F10" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="E10" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>222</v>
-      </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="3" width="15.13"/>
-    <col customWidth="1" min="4" max="4" width="22.63"/>
-    <col customWidth="1" min="5" max="5" width="15.13"/>
-    <col customWidth="1" min="6" max="6" width="19.25"/>
-    <col customWidth="1" min="7" max="19" width="15.13"/>
+    <col min="1" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1"/>
+    <col min="7" max="19" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B1" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="E1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="F1" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="G1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="H1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2">
+    </row>
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="24">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="D2" s="25" t="s">
         <v>224</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="F2" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="F2" s="25" t="s">
+    </row>
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="24" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="C3" s="24" t="s">
+      <c r="D3" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="E3" s="25" t="s">
         <v>228</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="F3" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="F3" s="25" t="s">
+    </row>
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="24" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="C4" s="24" t="s">
+      <c r="D4" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="E4" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="E4" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="F4" s="25" t="s">
-        <v>233</v>
-      </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:T102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="7" width="15.13"/>
-    <col customWidth="1" min="8" max="8" width="27.13"/>
-    <col customWidth="1" min="9" max="20" width="15.13"/>
+    <col min="1" max="7" width="15.140625" customWidth="1"/>
+    <col min="8" max="8" width="27.140625" customWidth="1"/>
+    <col min="9" max="20" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="H1" s="16" t="s">
         <v>15</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>16</v>
       </c>
       <c r="I1" s="19"/>
       <c r="J1" s="19"/>
@@ -6888,22 +7155,22 @@
       <c r="S1" s="19"/>
       <c r="T1" s="19"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B2" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="D2" s="16" t="s">
         <v>135</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>136</v>
       </c>
       <c r="E2" s="19"/>
       <c r="F2" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G2" s="17"/>
       <c r="H2" s="18"/>
@@ -6920,22 +7187,22 @@
       <c r="S2" s="19"/>
       <c r="T2" s="19"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="E3" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="E3" s="16" t="s">
-        <v>141</v>
-      </c>
       <c r="F3" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G3" s="17"/>
       <c r="H3" s="18"/>
@@ -6952,22 +7219,22 @@
       <c r="S3" s="19"/>
       <c r="T3" s="19"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="E4" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="E4" s="16" t="s">
-        <v>145</v>
-      </c>
       <c r="F4" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G4" s="17"/>
       <c r="H4" s="18"/>
@@ -6984,22 +7251,22 @@
       <c r="S4" s="19"/>
       <c r="T4" s="19"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="E5" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="F5" s="16" t="s">
         <v>243</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>244</v>
       </c>
       <c r="G5" s="17"/>
       <c r="H5" s="18"/>
@@ -7016,20 +7283,20 @@
       <c r="S5" s="19"/>
       <c r="T5" s="19"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>246</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>247</v>
       </c>
       <c r="E6" s="19"/>
       <c r="F6" s="16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G6" s="17"/>
       <c r="H6" s="18"/>
@@ -7046,22 +7313,22 @@
       <c r="S6" s="19"/>
       <c r="T6" s="19"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="B7" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="C7" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="D7" s="16" t="s">
         <v>251</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>252</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G7" s="17"/>
       <c r="H7" s="18"/>
@@ -7078,22 +7345,22 @@
       <c r="S7" s="19"/>
       <c r="T7" s="19"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="D8" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="E8" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="F8" s="16" t="s">
         <v>256</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>257</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="18"/>
@@ -7110,22 +7377,22 @@
       <c r="S8" s="19"/>
       <c r="T8" s="19"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="D9" s="16" t="s">
         <v>259</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="E9" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="F9" s="16" t="s">
         <v>260</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>261</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="18"/>
@@ -7142,22 +7409,22 @@
       <c r="S9" s="19"/>
       <c r="T9" s="19"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="D10" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="E10" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="F10" s="16" t="s">
         <v>264</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>243</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>265</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="18"/>
@@ -7174,20 +7441,20 @@
       <c r="S10" s="19"/>
       <c r="T10" s="19"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="21" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>246</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>247</v>
       </c>
       <c r="E11" s="19"/>
       <c r="F11" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="18"/>
@@ -7204,7 +7471,7 @@
       <c r="S11" s="19"/>
       <c r="T11" s="19"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -7226,7 +7493,7 @@
       <c r="S12" s="19"/>
       <c r="T12" s="19"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -7248,7 +7515,7 @@
       <c r="S13" s="19"/>
       <c r="T13" s="19"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -7270,7 +7537,7 @@
       <c r="S14" s="19"/>
       <c r="T14" s="19"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="19"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
@@ -7292,7 +7559,7 @@
       <c r="S15" s="19"/>
       <c r="T15" s="19"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="19"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
@@ -7314,7 +7581,7 @@
       <c r="S16" s="19"/>
       <c r="T16" s="19"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="19"/>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
@@ -7336,7 +7603,7 @@
       <c r="S17" s="19"/>
       <c r="T17" s="19"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="19"/>
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
@@ -7358,7 +7625,7 @@
       <c r="S18" s="19"/>
       <c r="T18" s="19"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="19"/>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
@@ -7380,7 +7647,7 @@
       <c r="S19" s="19"/>
       <c r="T19" s="19"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="19"/>
       <c r="B20" s="19"/>
       <c r="C20" s="19"/>
@@ -7402,7 +7669,7 @@
       <c r="S20" s="19"/>
       <c r="T20" s="19"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="19"/>
       <c r="B21" s="19"/>
       <c r="C21" s="19"/>
@@ -7424,7 +7691,7 @@
       <c r="S21" s="19"/>
       <c r="T21" s="19"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="19"/>
       <c r="B22" s="19"/>
       <c r="C22" s="19"/>
@@ -7446,7 +7713,7 @@
       <c r="S22" s="19"/>
       <c r="T22" s="19"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="19"/>
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
@@ -7468,7 +7735,7 @@
       <c r="S23" s="19"/>
       <c r="T23" s="19"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="19"/>
       <c r="B24" s="19"/>
       <c r="C24" s="19"/>
@@ -7490,7 +7757,7 @@
       <c r="S24" s="19"/>
       <c r="T24" s="19"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="19"/>
       <c r="B25" s="19"/>
       <c r="C25" s="19"/>
@@ -7512,7 +7779,7 @@
       <c r="S25" s="19"/>
       <c r="T25" s="19"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="19"/>
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
@@ -7534,7 +7801,7 @@
       <c r="S26" s="19"/>
       <c r="T26" s="19"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="19"/>
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
@@ -7556,7 +7823,7 @@
       <c r="S27" s="19"/>
       <c r="T27" s="19"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="19"/>
       <c r="B28" s="19"/>
       <c r="C28" s="19"/>
@@ -7578,7 +7845,7 @@
       <c r="S28" s="19"/>
       <c r="T28" s="19"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="19"/>
       <c r="B29" s="19"/>
       <c r="C29" s="19"/>
@@ -7600,7 +7867,7 @@
       <c r="S29" s="19"/>
       <c r="T29" s="19"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="19"/>
       <c r="B30" s="19"/>
       <c r="C30" s="19"/>
@@ -7622,7 +7889,7 @@
       <c r="S30" s="19"/>
       <c r="T30" s="19"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="19"/>
       <c r="B31" s="19"/>
       <c r="C31" s="19"/>
@@ -7644,7 +7911,7 @@
       <c r="S31" s="19"/>
       <c r="T31" s="19"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="19"/>
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
@@ -7666,7 +7933,7 @@
       <c r="S32" s="19"/>
       <c r="T32" s="19"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" s="19"/>
       <c r="B33" s="19"/>
       <c r="C33" s="19"/>
@@ -7688,7 +7955,7 @@
       <c r="S33" s="19"/>
       <c r="T33" s="19"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" s="19"/>
       <c r="B34" s="19"/>
       <c r="C34" s="19"/>
@@ -7710,7 +7977,7 @@
       <c r="S34" s="19"/>
       <c r="T34" s="19"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" s="19"/>
       <c r="B35" s="19"/>
       <c r="C35" s="19"/>
@@ -7732,7 +7999,7 @@
       <c r="S35" s="19"/>
       <c r="T35" s="19"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" s="19"/>
       <c r="B36" s="19"/>
       <c r="C36" s="19"/>
@@ -7754,7 +8021,7 @@
       <c r="S36" s="19"/>
       <c r="T36" s="19"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" s="19"/>
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>
@@ -7776,7 +8043,7 @@
       <c r="S37" s="19"/>
       <c r="T37" s="19"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" s="19"/>
       <c r="B38" s="19"/>
       <c r="C38" s="19"/>
@@ -7798,7 +8065,7 @@
       <c r="S38" s="19"/>
       <c r="T38" s="19"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" s="19"/>
       <c r="B39" s="19"/>
       <c r="C39" s="19"/>
@@ -7820,7 +8087,7 @@
       <c r="S39" s="19"/>
       <c r="T39" s="19"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" s="19"/>
       <c r="B40" s="19"/>
       <c r="C40" s="19"/>
@@ -7842,7 +8109,7 @@
       <c r="S40" s="19"/>
       <c r="T40" s="19"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" s="19"/>
       <c r="B41" s="19"/>
       <c r="C41" s="19"/>
@@ -7864,7 +8131,7 @@
       <c r="S41" s="19"/>
       <c r="T41" s="19"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" s="19"/>
       <c r="B42" s="19"/>
       <c r="C42" s="19"/>
@@ -7886,7 +8153,7 @@
       <c r="S42" s="19"/>
       <c r="T42" s="19"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" s="19"/>
       <c r="B43" s="19"/>
       <c r="C43" s="19"/>
@@ -7908,7 +8175,7 @@
       <c r="S43" s="19"/>
       <c r="T43" s="19"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" s="19"/>
       <c r="B44" s="19"/>
       <c r="C44" s="19"/>
@@ -7930,7 +8197,7 @@
       <c r="S44" s="19"/>
       <c r="T44" s="19"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" s="19"/>
       <c r="B45" s="19"/>
       <c r="C45" s="19"/>
@@ -7952,7 +8219,7 @@
       <c r="S45" s="19"/>
       <c r="T45" s="19"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" s="19"/>
       <c r="B46" s="19"/>
       <c r="C46" s="19"/>
@@ -7974,7 +8241,7 @@
       <c r="S46" s="19"/>
       <c r="T46" s="19"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" s="19"/>
       <c r="B47" s="19"/>
       <c r="C47" s="19"/>
@@ -7996,7 +8263,7 @@
       <c r="S47" s="19"/>
       <c r="T47" s="19"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" s="19"/>
       <c r="B48" s="19"/>
       <c r="C48" s="19"/>
@@ -8018,7 +8285,7 @@
       <c r="S48" s="19"/>
       <c r="T48" s="19"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" s="19"/>
       <c r="B49" s="19"/>
       <c r="C49" s="19"/>
@@ -8040,7 +8307,7 @@
       <c r="S49" s="19"/>
       <c r="T49" s="19"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" s="19"/>
       <c r="B50" s="19"/>
       <c r="C50" s="19"/>
@@ -8062,7 +8329,7 @@
       <c r="S50" s="19"/>
       <c r="T50" s="19"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" s="19"/>
       <c r="B51" s="19"/>
       <c r="C51" s="19"/>
@@ -8084,7 +8351,7 @@
       <c r="S51" s="19"/>
       <c r="T51" s="19"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" s="19"/>
       <c r="B52" s="19"/>
       <c r="C52" s="19"/>
@@ -8106,7 +8373,7 @@
       <c r="S52" s="19"/>
       <c r="T52" s="19"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" s="19"/>
       <c r="B53" s="19"/>
       <c r="C53" s="19"/>
@@ -8128,7 +8395,7 @@
       <c r="S53" s="19"/>
       <c r="T53" s="19"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" s="19"/>
       <c r="B54" s="19"/>
       <c r="C54" s="19"/>
@@ -8150,7 +8417,7 @@
       <c r="S54" s="19"/>
       <c r="T54" s="19"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" s="19"/>
       <c r="B55" s="19"/>
       <c r="C55" s="19"/>
@@ -8172,7 +8439,7 @@
       <c r="S55" s="19"/>
       <c r="T55" s="19"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56" s="19"/>
       <c r="B56" s="19"/>
       <c r="C56" s="19"/>
@@ -8194,7 +8461,7 @@
       <c r="S56" s="19"/>
       <c r="T56" s="19"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" s="19"/>
       <c r="B57" s="19"/>
       <c r="C57" s="19"/>
@@ -8216,7 +8483,7 @@
       <c r="S57" s="19"/>
       <c r="T57" s="19"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" s="19"/>
       <c r="B58" s="19"/>
       <c r="C58" s="19"/>
@@ -8238,7 +8505,7 @@
       <c r="S58" s="19"/>
       <c r="T58" s="19"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" s="19"/>
       <c r="B59" s="19"/>
       <c r="C59" s="19"/>
@@ -8260,7 +8527,7 @@
       <c r="S59" s="19"/>
       <c r="T59" s="19"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" s="19"/>
       <c r="B60" s="19"/>
       <c r="C60" s="19"/>
@@ -8282,7 +8549,7 @@
       <c r="S60" s="19"/>
       <c r="T60" s="19"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61" s="19"/>
       <c r="B61" s="19"/>
       <c r="C61" s="19"/>
@@ -8304,7 +8571,7 @@
       <c r="S61" s="19"/>
       <c r="T61" s="19"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62" s="19"/>
       <c r="B62" s="19"/>
       <c r="C62" s="19"/>
@@ -8326,7 +8593,7 @@
       <c r="S62" s="19"/>
       <c r="T62" s="19"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63" s="19"/>
       <c r="B63" s="19"/>
       <c r="C63" s="19"/>
@@ -8348,7 +8615,7 @@
       <c r="S63" s="19"/>
       <c r="T63" s="19"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64" s="19"/>
       <c r="B64" s="19"/>
       <c r="C64" s="19"/>
@@ -8370,7 +8637,7 @@
       <c r="S64" s="19"/>
       <c r="T64" s="19"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65" s="19"/>
       <c r="B65" s="19"/>
       <c r="C65" s="19"/>
@@ -8392,7 +8659,7 @@
       <c r="S65" s="19"/>
       <c r="T65" s="19"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" s="19"/>
       <c r="B66" s="19"/>
       <c r="C66" s="19"/>
@@ -8414,7 +8681,7 @@
       <c r="S66" s="19"/>
       <c r="T66" s="19"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" s="19"/>
       <c r="B67" s="19"/>
       <c r="C67" s="19"/>
@@ -8436,7 +8703,7 @@
       <c r="S67" s="19"/>
       <c r="T67" s="19"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68" s="19"/>
       <c r="B68" s="19"/>
       <c r="C68" s="19"/>
@@ -8458,7 +8725,7 @@
       <c r="S68" s="19"/>
       <c r="T68" s="19"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69" s="19"/>
       <c r="B69" s="19"/>
       <c r="C69" s="19"/>
@@ -8480,7 +8747,7 @@
       <c r="S69" s="19"/>
       <c r="T69" s="19"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70" s="19"/>
       <c r="B70" s="19"/>
       <c r="C70" s="19"/>
@@ -8502,7 +8769,7 @@
       <c r="S70" s="19"/>
       <c r="T70" s="19"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71" s="19"/>
       <c r="B71" s="19"/>
       <c r="C71" s="19"/>
@@ -8524,7 +8791,7 @@
       <c r="S71" s="19"/>
       <c r="T71" s="19"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A72" s="19"/>
       <c r="B72" s="19"/>
       <c r="C72" s="19"/>
@@ -8546,7 +8813,7 @@
       <c r="S72" s="19"/>
       <c r="T72" s="19"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A73" s="19"/>
       <c r="B73" s="19"/>
       <c r="C73" s="19"/>
@@ -8568,7 +8835,7 @@
       <c r="S73" s="19"/>
       <c r="T73" s="19"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A74" s="19"/>
       <c r="B74" s="19"/>
       <c r="C74" s="19"/>
@@ -8590,7 +8857,7 @@
       <c r="S74" s="19"/>
       <c r="T74" s="19"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A75" s="19"/>
       <c r="B75" s="19"/>
       <c r="C75" s="19"/>
@@ -8612,7 +8879,7 @@
       <c r="S75" s="19"/>
       <c r="T75" s="19"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A76" s="19"/>
       <c r="B76" s="19"/>
       <c r="C76" s="19"/>
@@ -8634,7 +8901,7 @@
       <c r="S76" s="19"/>
       <c r="T76" s="19"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A77" s="19"/>
       <c r="B77" s="19"/>
       <c r="C77" s="19"/>
@@ -8656,7 +8923,7 @@
       <c r="S77" s="19"/>
       <c r="T77" s="19"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A78" s="19"/>
       <c r="B78" s="19"/>
       <c r="C78" s="19"/>
@@ -8678,7 +8945,7 @@
       <c r="S78" s="19"/>
       <c r="T78" s="19"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A79" s="19"/>
       <c r="B79" s="19"/>
       <c r="C79" s="19"/>
@@ -8700,7 +8967,7 @@
       <c r="S79" s="19"/>
       <c r="T79" s="19"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A80" s="19"/>
       <c r="B80" s="19"/>
       <c r="C80" s="19"/>
@@ -8722,7 +8989,7 @@
       <c r="S80" s="19"/>
       <c r="T80" s="19"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A81" s="19"/>
       <c r="B81" s="19"/>
       <c r="C81" s="19"/>
@@ -8744,7 +9011,7 @@
       <c r="S81" s="19"/>
       <c r="T81" s="19"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A82" s="19"/>
       <c r="B82" s="19"/>
       <c r="C82" s="19"/>
@@ -8766,7 +9033,7 @@
       <c r="S82" s="19"/>
       <c r="T82" s="19"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A83" s="19"/>
       <c r="B83" s="19"/>
       <c r="C83" s="19"/>
@@ -8788,7 +9055,7 @@
       <c r="S83" s="19"/>
       <c r="T83" s="19"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A84" s="19"/>
       <c r="B84" s="19"/>
       <c r="C84" s="19"/>
@@ -8810,7 +9077,7 @@
       <c r="S84" s="19"/>
       <c r="T84" s="19"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A85" s="19"/>
       <c r="B85" s="19"/>
       <c r="C85" s="19"/>
@@ -8832,7 +9099,7 @@
       <c r="S85" s="19"/>
       <c r="T85" s="19"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A86" s="19"/>
       <c r="B86" s="19"/>
       <c r="C86" s="19"/>
@@ -8854,7 +9121,7 @@
       <c r="S86" s="19"/>
       <c r="T86" s="19"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A87" s="19"/>
       <c r="B87" s="19"/>
       <c r="C87" s="19"/>
@@ -8876,7 +9143,7 @@
       <c r="S87" s="19"/>
       <c r="T87" s="19"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A88" s="19"/>
       <c r="B88" s="19"/>
       <c r="C88" s="19"/>
@@ -8898,7 +9165,7 @@
       <c r="S88" s="19"/>
       <c r="T88" s="19"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A89" s="19"/>
       <c r="B89" s="19"/>
       <c r="C89" s="19"/>
@@ -8920,7 +9187,7 @@
       <c r="S89" s="19"/>
       <c r="T89" s="19"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A90" s="19"/>
       <c r="B90" s="19"/>
       <c r="C90" s="19"/>
@@ -8942,7 +9209,7 @@
       <c r="S90" s="19"/>
       <c r="T90" s="19"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A91" s="19"/>
       <c r="B91" s="19"/>
       <c r="C91" s="19"/>
@@ -8964,7 +9231,7 @@
       <c r="S91" s="19"/>
       <c r="T91" s="19"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A92" s="19"/>
       <c r="B92" s="19"/>
       <c r="C92" s="19"/>
@@ -8986,7 +9253,7 @@
       <c r="S92" s="19"/>
       <c r="T92" s="19"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A93" s="19"/>
       <c r="B93" s="19"/>
       <c r="C93" s="19"/>
@@ -9008,7 +9275,7 @@
       <c r="S93" s="19"/>
       <c r="T93" s="19"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A94" s="19"/>
       <c r="B94" s="19"/>
       <c r="C94" s="19"/>
@@ -9030,7 +9297,7 @@
       <c r="S94" s="19"/>
       <c r="T94" s="19"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A95" s="19"/>
       <c r="B95" s="19"/>
       <c r="C95" s="19"/>
@@ -9052,7 +9319,7 @@
       <c r="S95" s="19"/>
       <c r="T95" s="19"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A96" s="19"/>
       <c r="B96" s="19"/>
       <c r="C96" s="19"/>
@@ -9074,7 +9341,7 @@
       <c r="S96" s="19"/>
       <c r="T96" s="19"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A97" s="19"/>
       <c r="B97" s="19"/>
       <c r="C97" s="19"/>
@@ -9096,7 +9363,7 @@
       <c r="S97" s="19"/>
       <c r="T97" s="19"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A98" s="19"/>
       <c r="B98" s="19"/>
       <c r="C98" s="19"/>
@@ -9118,7 +9385,7 @@
       <c r="S98" s="19"/>
       <c r="T98" s="19"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A99" s="19"/>
       <c r="B99" s="19"/>
       <c r="C99" s="19"/>
@@ -9140,7 +9407,7 @@
       <c r="S99" s="19"/>
       <c r="T99" s="19"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A100" s="19"/>
       <c r="B100" s="19"/>
       <c r="C100" s="19"/>
@@ -9162,7 +9429,7 @@
       <c r="S100" s="19"/>
       <c r="T100" s="19"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A101" s="19"/>
       <c r="B101" s="19"/>
       <c r="C101" s="19"/>
@@ -9184,7 +9451,7 @@
       <c r="S101" s="19"/>
       <c r="T101" s="19"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A102" s="19"/>
       <c r="B102" s="19"/>
       <c r="C102" s="19"/>
@@ -9207,155 +9474,156 @@
       <c r="T102" s="19"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$H$11"/>
-  <drawing r:id="rId1"/>
+  <autoFilter ref="A1:H11"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="6.0"/>
-    <col customWidth="1" min="2" max="2" width="19.25"/>
-    <col customWidth="1" min="3" max="3" width="16.75"/>
-    <col customWidth="1" min="4" max="4" width="18.25"/>
-    <col customWidth="1" min="5" max="5" width="16.0"/>
-    <col customWidth="1" min="6" max="6" width="26.0"/>
-    <col customWidth="1" min="7" max="20" width="15.13"/>
+    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="26" customWidth="1"/>
+    <col min="7" max="20" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="H1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2">
+    </row>
+    <row r="2" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B2" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="D2" s="16" t="s">
         <v>224</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>225</v>
       </c>
       <c r="E2" s="19"/>
       <c r="F2" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G2" s="17"/>
       <c r="H2" s="19"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="21" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G3" s="17"/>
       <c r="H3" s="19"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>232</v>
-      </c>
       <c r="E4" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4" s="17"/>
       <c r="H4" s="19"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>274</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="E5" s="21">
+        <v>128</v>
+      </c>
+      <c r="F5" s="16" t="s">
         <v>275</v>
-      </c>
-      <c r="E5" s="21">
-        <v>128.0</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>276</v>
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="18"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="D6" s="16" t="s">
-        <v>279</v>
-      </c>
       <c r="E6" s="21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G6" s="17"/>
       <c r="H6" s="19"/>
@@ -9372,801 +9640,803 @@
       <c r="S6" s="19"/>
       <c r="T6" s="19"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="D7" s="16" t="s">
         <v>246</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>247</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G7" s="17"/>
       <c r="H7" s="19"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B8" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="D8" s="16" t="s">
         <v>135</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>136</v>
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G8" s="19"/>
       <c r="H8" s="18"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="E9" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="E9" s="16" t="s">
-        <v>141</v>
-      </c>
       <c r="F9" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G9" s="19"/>
       <c r="H9" s="18"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="D10" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="E10" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="E10" s="16" t="s">
-        <v>145</v>
-      </c>
       <c r="F10" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G10" s="19"/>
       <c r="H10" s="18"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="21" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="E11" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="F11" s="16" t="s">
         <v>243</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>244</v>
       </c>
       <c r="G11" s="19"/>
       <c r="H11" s="18"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B12" s="19"/>
       <c r="C12" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="D12" s="16" t="s">
         <v>246</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>247</v>
       </c>
       <c r="E12" s="19"/>
       <c r="F12" s="16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G12" s="19"/>
       <c r="H12" s="18"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="B13" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="C13" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="D13" s="16" t="s">
         <v>289</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>290</v>
       </c>
       <c r="E13" s="19"/>
       <c r="F13" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G13" s="19"/>
       <c r="H13" s="18"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B14" s="19"/>
       <c r="C14" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="D14" s="16" t="s">
         <v>293</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="E14" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="F14" s="16" t="s">
         <v>294</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>295</v>
       </c>
       <c r="G14" s="19"/>
       <c r="H14" s="18"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="D15" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="E15" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="F15" s="16" t="s">
         <v>298</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>299</v>
       </c>
       <c r="G15" s="19"/>
       <c r="H15" s="18"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="21" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B16" s="19"/>
       <c r="C16" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="D16" s="16" t="s">
         <v>301</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="E16" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="F16" s="16" t="s">
         <v>302</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>243</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>303</v>
       </c>
       <c r="G16" s="19"/>
       <c r="H16" s="18"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B17" s="19"/>
       <c r="C17" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="D17" s="16" t="s">
         <v>246</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>247</v>
       </c>
       <c r="E17" s="19"/>
       <c r="F17" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G17" s="19"/>
       <c r="H17" s="18"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
     </row>
   </sheetData>
-  <autoFilter ref="$H$1:$H$108"/>
-  <drawing r:id="rId1"/>
+  <autoFilter ref="H1:H108"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="5.5"/>
-    <col customWidth="1" min="2" max="20" width="15.13"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="20" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="H1" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="26" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2">
+    </row>
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B2" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="D2" s="16" t="s">
         <v>224</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>225</v>
       </c>
       <c r="E2" s="19"/>
       <c r="F2" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G2" s="17"/>
       <c r="H2" s="27"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="21" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G3" s="17"/>
       <c r="H3" s="27"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>232</v>
-      </c>
       <c r="E4" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4" s="17"/>
       <c r="H4" s="27"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="D5" s="16" t="s">
-        <v>279</v>
-      </c>
       <c r="E5" s="21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G5" s="17"/>
       <c r="H5" s="27"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>246</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>247</v>
       </c>
       <c r="E6" s="19"/>
       <c r="F6" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G6" s="17"/>
       <c r="H6" s="27"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H7" s="1"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H8" s="1"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H9" s="1"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H10" s="1"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H11" s="1"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H12" s="1"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H13" s="1"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H14" s="1"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H15" s="1"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H16" s="1"/>
     </row>
-    <row r="17">
+    <row r="17" spans="8:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H17" s="1"/>
     </row>
-    <row r="18">
+    <row r="18" spans="8:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H18" s="1"/>
     </row>
-    <row r="19">
+    <row r="19" spans="8:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H19" s="1"/>
     </row>
-    <row r="20">
+    <row r="20" spans="8:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H20" s="1"/>
     </row>
-    <row r="21">
+    <row r="21" spans="8:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H21" s="1"/>
     </row>
-    <row r="22">
+    <row r="22" spans="8:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H22" s="1"/>
     </row>
-    <row r="23">
+    <row r="23" spans="8:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H23" s="1"/>
     </row>
-    <row r="24">
+    <row r="24" spans="8:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H24" s="1"/>
     </row>
-    <row r="25">
+    <row r="25" spans="8:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H25" s="1"/>
     </row>
-    <row r="26">
+    <row r="26" spans="8:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H26" s="1"/>
     </row>
-    <row r="27">
+    <row r="27" spans="8:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H27" s="1"/>
     </row>
-    <row r="28">
+    <row r="28" spans="8:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H28" s="1"/>
     </row>
-    <row r="29">
+    <row r="29" spans="8:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H29" s="1"/>
     </row>
-    <row r="30">
+    <row r="30" spans="8:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H30" s="1"/>
     </row>
-    <row r="31">
+    <row r="31" spans="8:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H31" s="1"/>
     </row>
-    <row r="32">
+    <row r="32" spans="8:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H32" s="1"/>
     </row>
-    <row r="33">
+    <row r="33" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H33" s="1"/>
     </row>
-    <row r="34">
+    <row r="34" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H34" s="1"/>
     </row>
-    <row r="35">
+    <row r="35" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H35" s="1"/>
     </row>
-    <row r="36">
+    <row r="36" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H36" s="1"/>
     </row>
-    <row r="37">
+    <row r="37" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H37" s="1"/>
     </row>
-    <row r="38">
+    <row r="38" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H38" s="1"/>
     </row>
-    <row r="39">
+    <row r="39" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H39" s="1"/>
     </row>
-    <row r="40">
+    <row r="40" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H40" s="1"/>
     </row>
-    <row r="41">
+    <row r="41" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H41" s="1"/>
     </row>
-    <row r="42">
+    <row r="42" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H42" s="1"/>
     </row>
-    <row r="43">
+    <row r="43" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H43" s="1"/>
     </row>
-    <row r="44">
+    <row r="44" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H44" s="1"/>
     </row>
-    <row r="45">
+    <row r="45" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H45" s="1"/>
     </row>
-    <row r="46">
+    <row r="46" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H46" s="1"/>
     </row>
-    <row r="47">
+    <row r="47" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H47" s="1"/>
     </row>
-    <row r="48">
+    <row r="48" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H48" s="1"/>
     </row>
-    <row r="49">
+    <row r="49" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H49" s="1"/>
     </row>
-    <row r="50">
+    <row r="50" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H50" s="1"/>
     </row>
-    <row r="51">
+    <row r="51" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H51" s="1"/>
     </row>
-    <row r="52">
+    <row r="52" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H52" s="1"/>
     </row>
-    <row r="53">
+    <row r="53" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H53" s="1"/>
     </row>
-    <row r="54">
+    <row r="54" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H54" s="1"/>
     </row>
-    <row r="55">
+    <row r="55" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H55" s="1"/>
     </row>
-    <row r="56">
+    <row r="56" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H56" s="1"/>
     </row>
-    <row r="57">
+    <row r="57" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H57" s="1"/>
     </row>
-    <row r="58">
+    <row r="58" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H58" s="1"/>
     </row>
-    <row r="59">
+    <row r="59" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H59" s="1"/>
     </row>
-    <row r="60">
+    <row r="60" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H60" s="1"/>
     </row>
-    <row r="61">
+    <row r="61" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H61" s="1"/>
     </row>
-    <row r="62">
+    <row r="62" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H62" s="1"/>
     </row>
-    <row r="63">
+    <row r="63" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H63" s="1"/>
     </row>
-    <row r="64">
+    <row r="64" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H64" s="1"/>
     </row>
-    <row r="65">
+    <row r="65" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H65" s="1"/>
     </row>
-    <row r="66">
+    <row r="66" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H66" s="1"/>
     </row>
-    <row r="67">
+    <row r="67" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H67" s="1"/>
     </row>
-    <row r="68">
+    <row r="68" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H68" s="1"/>
     </row>
-    <row r="69">
+    <row r="69" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H69" s="1"/>
     </row>
-    <row r="70">
+    <row r="70" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H70" s="1"/>
     </row>
-    <row r="71">
+    <row r="71" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H71" s="1"/>
     </row>
-    <row r="72">
+    <row r="72" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H72" s="1"/>
     </row>
-    <row r="73">
+    <row r="73" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H73" s="1"/>
     </row>
-    <row r="74">
+    <row r="74" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H74" s="1"/>
     </row>
-    <row r="75">
+    <row r="75" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H75" s="1"/>
     </row>
-    <row r="76">
+    <row r="76" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H76" s="1"/>
     </row>
-    <row r="77">
+    <row r="77" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H77" s="1"/>
     </row>
-    <row r="78">
+    <row r="78" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H78" s="1"/>
     </row>
-    <row r="79">
+    <row r="79" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H79" s="1"/>
     </row>
-    <row r="80">
+    <row r="80" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H80" s="1"/>
     </row>
-    <row r="81">
+    <row r="81" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H81" s="1"/>
     </row>
-    <row r="82">
+    <row r="82" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H82" s="1"/>
     </row>
-    <row r="83">
+    <row r="83" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H83" s="1"/>
     </row>
-    <row r="84">
+    <row r="84" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H84" s="1"/>
     </row>
-    <row r="85">
+    <row r="85" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H85" s="1"/>
     </row>
-    <row r="86">
+    <row r="86" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H86" s="1"/>
     </row>
-    <row r="87">
+    <row r="87" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H87" s="1"/>
     </row>
-    <row r="88">
+    <row r="88" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H88" s="1"/>
     </row>
-    <row r="89">
+    <row r="89" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H89" s="1"/>
     </row>
-    <row r="90">
+    <row r="90" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H90" s="1"/>
     </row>
-    <row r="91">
+    <row r="91" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H91" s="1"/>
     </row>
-    <row r="92">
+    <row r="92" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H92" s="1"/>
     </row>
-    <row r="93">
+    <row r="93" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H93" s="1"/>
     </row>
-    <row r="94">
+    <row r="94" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H94" s="1"/>
     </row>
-    <row r="95">
+    <row r="95" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H95" s="1"/>
     </row>
-    <row r="96">
+    <row r="96" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H96" s="1"/>
     </row>
-    <row r="97">
+    <row r="97" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H97" s="1"/>
     </row>
-    <row r="98">
+    <row r="98" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H98" s="1"/>
     </row>
-    <row r="99">
+    <row r="99" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H99" s="1"/>
     </row>
-    <row r="100">
+    <row r="100" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H100" s="1"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="7.13"/>
-    <col customWidth="1" min="2" max="20" width="15.13"/>
+    <col min="1" max="1" width="7.140625" customWidth="1"/>
+    <col min="2" max="20" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="H1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2">
+    </row>
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>311</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="C2" s="21" t="s">
         <v>312</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="D2" s="16" t="s">
         <v>313</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>314</v>
       </c>
       <c r="E2" s="19"/>
       <c r="F2" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G2" s="17"/>
       <c r="H2" s="19"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="E3" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="F3" s="16" t="s">
         <v>317</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>229</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>318</v>
       </c>
       <c r="G3" s="17"/>
       <c r="H3" s="18"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>320</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>321</v>
-      </c>
       <c r="E4" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4" s="17"/>
       <c r="H4" s="19"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>323</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="E5" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="F5" s="16" t="s">
         <v>324</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>243</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>325</v>
       </c>
       <c r="G5" s="17"/>
       <c r="H5" s="18"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>246</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>247</v>
       </c>
       <c r="E6" s="19"/>
       <c r="F6" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G6" s="17"/>
       <c r="H6" s="18"/>
     </row>
   </sheetData>
-  <autoFilter ref="$H$1:$H$100"/>
-  <drawing r:id="rId1"/>
+  <autoFilter ref="H1:H100"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>